--- a/Documentation/ProjektPlan.xlsx
+++ b/Documentation/ProjektPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Anf. Nr.</t>
   </si>
@@ -24,52 +24,121 @@
     <t>Aufgabe</t>
   </si>
   <si>
-    <t>Dauer</t>
-  </si>
-  <si>
     <t>Tage seit Start</t>
   </si>
   <si>
     <t>Fertiggestellt</t>
   </si>
   <si>
-    <t>Aufgabe 1</t>
-  </si>
-  <si>
-    <t>Aufgabe 2</t>
-  </si>
-  <si>
-    <t>Aufgabe 3</t>
-  </si>
-  <si>
-    <t>Aufgabe 4</t>
-  </si>
-  <si>
-    <t>Aufgabe 5</t>
-  </si>
-  <si>
-    <t>Aufgabe 6</t>
-  </si>
-  <si>
-    <t>Aufgabe 7</t>
-  </si>
-  <si>
-    <t>Aufgabe 8</t>
-  </si>
-  <si>
-    <t>Aufgabe 9</t>
-  </si>
-  <si>
-    <t>Aufgabe 10</t>
-  </si>
-  <si>
     <t>Termin</t>
   </si>
   <si>
-    <t>Meilenstein</t>
-  </si>
-  <si>
     <t>Tage bis zur Fertigstellung</t>
+  </si>
+  <si>
+    <t>Minuten</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Dauer (Minuten)</t>
+  </si>
+  <si>
+    <t>Priorität</t>
+  </si>
+  <si>
+    <t>REST Schnittstelle für Metadaten Abfrage diverser Online DB</t>
+  </si>
+  <si>
+    <t>Filter für die Sammlung implementieren</t>
+  </si>
+  <si>
+    <t>Dokumentation fertigstellen/überarbeiten</t>
+  </si>
+  <si>
+    <t>Verleihverwaltung implementieren</t>
+  </si>
+  <si>
+    <t>Datenbank Design</t>
+  </si>
+  <si>
+    <t>Datenbank in App implementieren</t>
+  </si>
+  <si>
+    <t>Item Manuell anlegen</t>
+  </si>
+  <si>
+    <t>Item Information bearbeiten</t>
+  </si>
+  <si>
+    <t>Item löschen</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Alle Items exportieren (xml)</t>
+  </si>
+  <si>
+    <t>Alle items exportieren (csv)</t>
+  </si>
+  <si>
+    <t>GUI: Item bearbeiten</t>
+  </si>
+  <si>
+    <t>GUIItems exportieren</t>
+  </si>
+  <si>
+    <t>Kamera als Barcodescanner</t>
+  </si>
+  <si>
+    <t>GUI: Kamera als Barcodescanner</t>
+  </si>
+  <si>
+    <t>GUI: Liste verliehener Items</t>
+  </si>
+  <si>
+    <t>Datenbank Administration implementieren</t>
+  </si>
+  <si>
+    <t>Für Semesterarbeit bereits investierte Arbeitszeit:</t>
+  </si>
+  <si>
+    <t>52 Std. 15 Min.</t>
+  </si>
+  <si>
+    <t>Arbeitszeit für Semesterarbeit nach Regelment:</t>
+  </si>
+  <si>
+    <t>120 Std.</t>
+  </si>
+  <si>
+    <t>Budgetierte Arbeitszeit gemäss der noch offenen Anforderungen</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Differenz +/- zu Regelment:</t>
+  </si>
+  <si>
+    <t>15 Min.</t>
+  </si>
+  <si>
+    <t>68 Std.</t>
+  </si>
+  <si>
+    <t>120 Std. 15 Min.</t>
   </si>
 </sst>
 </file>
@@ -77,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-807]d/\ mmm\ yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-807]d/\ mmm\ yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -108,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,34 +185,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-807]d/\ mmm\ yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-807]d/\ mmm\ yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -169,7 +405,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5575737691879442E-2"/>
+          <c:y val="8.7379988716363724E-2"/>
+          <c:w val="0.88792114053925075"/>
+          <c:h val="0.88562104970523547"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -179,7 +425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
+              <c:f>Tabelle1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -197,75 +443,112 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Aufgabe 1</c:v>
+                  <c:v>102005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aufgabe 2</c:v>
+                  <c:v>201001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aufgabe 3</c:v>
+                  <c:v>201002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Aufgabe 4</c:v>
+                  <c:v>101001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Aufgabe 5</c:v>
+                  <c:v>101002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Aufgabe 6</c:v>
+                  <c:v>101003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Aufgabe 7</c:v>
+                  <c:v>301001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Aufgabe 8</c:v>
+                  <c:v>102001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aufgabe 9</c:v>
+                  <c:v>302002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Aufgabe 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>102003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>302001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>402001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$11</c:f>
+              <c:f>Tabelle1!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
+                <c:ptCount val="17"/>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -276,7 +559,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$1</c:f>
+              <c:f>Tabelle1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,78 +570,121 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Aufgabe 1</c:v>
+                  <c:v>102005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aufgabe 2</c:v>
+                  <c:v>201001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aufgabe 3</c:v>
+                  <c:v>201002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Aufgabe 4</c:v>
+                  <c:v>101001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Aufgabe 5</c:v>
+                  <c:v>101002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Aufgabe 6</c:v>
+                  <c:v>101003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Aufgabe 7</c:v>
+                  <c:v>301001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Aufgabe 8</c:v>
+                  <c:v>102001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aufgabe 9</c:v>
+                  <c:v>302002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Aufgabe 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>102003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>302001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>402001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$2:$E$11</c:f>
+              <c:f>Tabelle1!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,20 +700,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="66588672"/>
-        <c:axId val="66590208"/>
+        <c:axId val="48248320"/>
+        <c:axId val="48249856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66588672"/>
+        <c:axId val="48248320"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66590208"/>
+        <c:crossAx val="48249856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -395,7 +722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66590208"/>
+        <c:axId val="48249856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66588672"/>
+        <c:crossAx val="48248320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -428,15 +755,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>771524</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -456,6 +783,23 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H18" totalsRowShown="0">
+  <autoFilter ref="A1:H18"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Anf. Nr." dataDxfId="7"/>
+    <tableColumn id="2" name="Priorität" dataDxfId="6"/>
+    <tableColumn id="3" name="Aufgabe" dataDxfId="5"/>
+    <tableColumn id="4" name="Dauer (Minuten)" dataDxfId="4"/>
+    <tableColumn id="5" name="Tage seit Start" dataDxfId="3"/>
+    <tableColumn id="6" name="Tage bis zur Fertigstellung" dataDxfId="2"/>
+    <tableColumn id="7" name="Termin" dataDxfId="1"/>
+    <tableColumn id="9" name="Fertiggestellt" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,22 +1089,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="58.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1"/>
-    <col min="4" max="5" width="11" style="7"/>
-    <col min="6" max="6" width="11.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="1"/>
+    <col min="2" max="2" width="11.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,135 +1114,476 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>102005</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6">
+        <v>120</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>42454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>201001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D3" s="6">
+        <v>120</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>201002</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
+        <v>240</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>101001</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6">
+        <v>240</v>
+      </c>
+      <c r="E5" s="6">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>101002</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>240</v>
+      </c>
+      <c r="E6" s="6">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>101003</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>301001</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6">
+        <v>120</v>
+      </c>
+      <c r="E8" s="6">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>102001</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6">
+        <v>360</v>
+      </c>
+      <c r="E9" s="6">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>302002</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6">
+        <v>120</v>
+      </c>
+      <c r="E10" s="6">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>102003</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <v>240</v>
+      </c>
+      <c r="E11" s="6">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>102002</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>360</v>
+      </c>
+      <c r="E12" s="6">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>42476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>302001</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6">
+        <v>120</v>
+      </c>
+      <c r="E13" s="6">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>42476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>103001</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>480</v>
+      </c>
+      <c r="E14" s="6">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>42484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>102004</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6">
+        <v>120</v>
+      </c>
+      <c r="E15" s="6">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>42489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>304001</v>
+      </c>
+      <c r="B16" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6">
+        <v>120</v>
+      </c>
+      <c r="E16" s="6">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>42489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>104001</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6">
+        <v>480</v>
+      </c>
+      <c r="E17" s="6">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>402001</v>
+      </c>
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
+      <c r="D18" s="6">
+        <v>480</v>
+      </c>
+      <c r="E18" s="6">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7200</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3135</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7">
+        <f>SUM(D2:D18)</f>
+        <v>4080</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10">
+        <f>D23+D24</f>
+        <v>7215</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="12">
+        <f>D25-D22</f>
+        <v>15</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I18">
+    <sortCondition ref="G2:G18"/>
+  </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -905,83 +1592,118 @@
     <oddFooter>&amp;L&amp;"FagoNoRegularTf-Roman,Kursiv"&amp;XMathias Weigert i10b</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>690</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>3135</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f>H14-C14</f>
+        <v>4065</v>
+      </c>
+      <c r="H14">
+        <f>60*120</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15">
         <f>C14/60</f>
         <v>52.25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <f>F14/60</f>
+        <v>67.75</v>
+      </c>
+      <c r="H15">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
